--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/OKLAHOMA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/OKLAHOMA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D983"/>
+  <dimension ref="A1:D977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C10">
@@ -643,7 +643,7 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C32">
@@ -817,7 +817,7 @@
         <v>7</v>
       </c>
       <c r="D33">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="34">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C44">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C46">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C53">
@@ -1264,7 +1264,7 @@
         <v>7</v>
       </c>
       <c r="D67">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="68">
@@ -1400,7 +1400,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C78">
@@ -1517,7 +1517,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C87">
@@ -1537,13 +1537,13 @@
         <v>7</v>
       </c>
       <c r="D88">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C89">
@@ -1803,7 +1803,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C109">
@@ -1894,7 +1894,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C116">
@@ -2146,7 +2146,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C135">
@@ -2307,7 +2307,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2551,7 +2551,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C165">
@@ -2571,7 +2571,7 @@
         <v>7</v>
       </c>
       <c r="D166">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="167">
@@ -2720,7 +2720,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C178">
@@ -2772,7 +2772,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C182">
@@ -2863,7 +2863,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C189">
@@ -2876,7 +2876,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C190">
@@ -2889,7 +2889,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C191">
@@ -2902,7 +2902,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C192">
@@ -3006,19 +3006,19 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C200">
         <v>7</v>
       </c>
       <c r="D200">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="201">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C202">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C205">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C211">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C214">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C217">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C226">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C230">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C231">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C236">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C244">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C248">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C249">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C257">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C258">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C259">
@@ -3874,7 +3874,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C266">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C270">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C279">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C281">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C283">
@@ -4108,7 +4108,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C284">
@@ -4121,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C285">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C289">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C294">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C296">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C298">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C301">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C305">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C308">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C309">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C313">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C314">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C318">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C319">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C320">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C322">
@@ -4627,7 +4627,7 @@
         <v>7</v>
       </c>
       <c r="D323">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="324">
@@ -4757,7 +4757,7 @@
         <v>7</v>
       </c>
       <c r="D333">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="334">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C335">
@@ -4802,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C337">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C339">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C344">
@@ -4906,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C345">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C359">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C364">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C367">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C369">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C371">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C376">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C378">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C380">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C384">
@@ -5431,20 +5431,20 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C385">
         <v>7</v>
       </c>
       <c r="D385">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C386">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C390">
@@ -5547,13 +5547,13 @@
         <v>7</v>
       </c>
       <c r="D393">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C394">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C395">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C399">
@@ -5703,7 +5703,7 @@
         <v>7</v>
       </c>
       <c r="D405">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="406">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C412">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C413">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C417">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C421">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C427">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C432">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C434">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C436">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C438">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C439">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C440">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C442">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C446">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C448">
@@ -6301,7 +6301,7 @@
         <v>7</v>
       </c>
       <c r="D451">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="452">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C453">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C454">
@@ -6392,13 +6392,13 @@
         <v>7</v>
       </c>
       <c r="D458">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C459">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C461">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C462">
@@ -6637,7 +6637,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C477">
@@ -6650,7 +6650,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C478">
@@ -6800,7 +6800,7 @@
         <v>7</v>
       </c>
       <c r="D489">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="490">
@@ -6878,7 +6878,7 @@
         <v>7</v>
       </c>
       <c r="D495">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="496">
@@ -7183,7 +7183,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C519">
@@ -7435,7 +7435,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C538">
@@ -7500,7 +7500,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C543">
@@ -7552,7 +7552,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C547">
@@ -7565,7 +7565,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C548">
@@ -7630,7 +7630,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C553">
@@ -7687,7 +7687,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C557">
@@ -7887,7 +7887,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C572">
@@ -7952,7 +7952,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C577">
@@ -7991,7 +7991,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C580">
@@ -8100,7 +8100,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C588">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C592">
@@ -8165,20 +8165,20 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C593">
         <v>7</v>
       </c>
       <c r="D593">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C594">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C595">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C596">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C598">
@@ -8250,13 +8250,13 @@
         <v>7</v>
       </c>
       <c r="D599">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C600">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C602">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,14 +8308,14 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C604">
         <v>7</v>
       </c>
       <c r="D604">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="605">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C608">
@@ -8620,7 +8620,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C628">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C634">
@@ -8906,7 +8906,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C650">
@@ -8984,7 +8984,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C656">
@@ -8997,7 +8997,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C657">
@@ -9036,7 +9036,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C660">
@@ -9049,7 +9049,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C661">
@@ -9062,7 +9062,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C662">
@@ -9075,7 +9075,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C663">
@@ -9197,7 +9197,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C672">
@@ -9262,7 +9262,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C677">
@@ -9366,7 +9366,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C685">
@@ -9431,7 +9431,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C690">
@@ -9496,7 +9496,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C695">
@@ -9522,7 +9522,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C697">
@@ -9535,7 +9535,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C698">
@@ -9722,7 +9722,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C712">
@@ -9748,7 +9748,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C714">
@@ -9826,7 +9826,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C720">
@@ -9839,7 +9839,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C721">
@@ -9852,7 +9852,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C722">
@@ -9891,7 +9891,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C725">
@@ -10018,7 +10018,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C734">
@@ -10031,7 +10031,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C735">
@@ -10109,7 +10109,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C741">
@@ -10226,7 +10226,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C750">
@@ -10278,7 +10278,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C754">
@@ -10330,7 +10330,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C758">
@@ -10356,7 +10356,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C760">
@@ -10421,7 +10421,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C765">
@@ -10460,7 +10460,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C768">
@@ -10473,7 +10473,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C769">
@@ -10486,7 +10486,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C770">
@@ -10499,7 +10499,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C771">
@@ -10512,7 +10512,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C772">
@@ -11325,7 +11325,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C833">
@@ -11371,7 +11371,7 @@
         <v>7</v>
       </c>
       <c r="D836">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="837">
@@ -11447,7 +11447,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C842">
@@ -11460,7 +11460,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C843">
@@ -11582,7 +11582,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C852">
@@ -11660,7 +11660,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C858">
@@ -11673,7 +11673,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C859">
@@ -11699,7 +11699,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C861">
@@ -11764,7 +11764,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C866">
@@ -11868,7 +11868,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C874">
@@ -11946,7 +11946,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C880">
@@ -11972,7 +11972,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C882">
@@ -12011,7 +12011,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C885">
@@ -12044,7 +12044,7 @@
         <v>7</v>
       </c>
       <c r="D887">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="888">
@@ -12076,7 +12076,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C890">
@@ -12089,7 +12089,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C891">
@@ -12141,7 +12141,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C895">
@@ -12245,7 +12245,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C903">
@@ -12343,7 +12343,7 @@
         <v>7</v>
       </c>
       <c r="D910">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="911">
@@ -12582,7 +12582,7 @@
         <v>7</v>
       </c>
       <c r="D928">
-        <v>0.0009669843901091311</v>
+        <v>0.0009669843901091312</v>
       </c>
     </row>
     <row r="929">
@@ -12658,7 +12658,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C934">
@@ -12684,7 +12684,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C936">
@@ -12879,7 +12879,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C951">
@@ -12944,7 +12944,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C956">
@@ -12957,20 +12957,20 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C957">
         <v>71</v>
       </c>
       <c r="D957">
-        <v>0.009807984528249759</v>
+        <v>0.00980798452824976</v>
       </c>
     </row>
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C958">
@@ -13087,7 +13087,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C967">
@@ -13100,7 +13100,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C968">
@@ -13139,7 +13139,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C971">
@@ -13225,41 +13225,6 @@
       </c>
       <c r="D977">
         <v>1</v>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
